--- a/results/Before 1st sem without tuition_cv_3.xlsx
+++ b/results/Before 1st sem without tuition_cv_3.xlsx
@@ -67,25 +67,25 @@
     <t>XGBoost</t>
   </si>
   <si>
-    <t>{'max_depth': 5, 'min_samples_split': 2}</t>
-  </si>
-  <si>
-    <t>{'max_features': 'log2', 'n_estimators': 200}</t>
-  </si>
-  <si>
-    <t>{'learning_rate': 0.05, 'num_leaves': 31}</t>
-  </si>
-  <si>
-    <t>{'max_depth': 3, 'n_estimators': 50}</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(max_depth=5)</t>
-  </si>
-  <si>
-    <t>RandomForestClassifier(max_features='log2', n_estimators=200)</t>
-  </si>
-  <si>
-    <t>LGBMClassifier(learning_rate=0.05)</t>
+    <t>{'max_depth': 5, 'min_samples_leaf': 5, 'min_samples_split': 10}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 20, 'min_samples_split': 10, 'n_estimators': 150}</t>
+  </si>
+  <si>
+    <t>{'learning_rate': 0.15, 'n_estimators': 50, 'num_leaves': 50}</t>
+  </si>
+  <si>
+    <t>{'learning_rate': 0.05, 'max_depth': 3, 'n_estimators': 150}</t>
+  </si>
+  <si>
+    <t>DecisionTreeClassifier(max_depth=5, min_samples_leaf=5, min_samples_split=10)</t>
+  </si>
+  <si>
+    <t>RandomForestClassifier(max_depth=20, min_samples_split=10, n_estimators=150)</t>
+  </si>
+  <si>
+    <t>LGBMClassifier(learning_rate=0.15, n_estimators=50, num_leaves=50)</t>
   </si>
   <si>
     <t>XGBClassifier(base_score=None, booster=None, callbacks=None,
@@ -93,11 +93,11 @@
               colsample_bytree=None, device=None, early_stopping_rounds=None,
               enable_categorical=True, eval_metric=None, feature_types=None,
               gamma=None, grow_policy=None, importance_type=None,
-              interaction_constraints=None, learning_rate=None, max_bin=None,
+              interaction_constraints=None, learning_rate=0.05, max_bin=None,
               max_cat_threshold=None, max_cat_to_onehot=None,
               max_delta_step=None, max_depth=3, max_leaves=None,
               min_child_weight=None, missing=nan, monotone_constraints=None,
-              multi_strategy=None, n_estimators=50, n_jobs=None,
+              multi_strategy=None, n_estimators=150, n_jobs=None,
               num_parallel_tree=None, random_state=None, ...)</t>
   </si>
   <si>
@@ -105,16 +105,16 @@
  [114 335]]</t>
   </si>
   <si>
+    <t>[[181  96]
+ [ 86 363]]</t>
+  </si>
+  <si>
     <t>[[183  94]
- [ 94 355]]</t>
-  </si>
-  <si>
-    <t>[[190  87]
- [ 82 367]]</t>
-  </si>
-  <si>
-    <t>[[192  85]
- [ 76 373]]</t>
+ [ 90 359]]</t>
+  </si>
+  <si>
+    <t>[[186  91]
+ [ 75 374]]</t>
   </si>
 </sst>
 </file>
@@ -527,7 +527,7 @@
         <v>17</v>
       </c>
       <c r="C2">
-        <v>0.7279843583362957</v>
+        <v>0.7293612987320773</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -557,7 +557,7 @@
         <v>0.745137320866609</v>
       </c>
       <c r="M2">
-        <v>1.004882097244263</v>
+        <v>16.74492311477661</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -568,7 +568,7 @@
         <v>18</v>
       </c>
       <c r="C3">
-        <v>0.7493162697002015</v>
+        <v>0.7551735987676265</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
@@ -577,28 +577,28 @@
         <v>26</v>
       </c>
       <c r="F3">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="G3">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H3">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="I3">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J3">
-        <v>0.7410468319559229</v>
+        <v>0.7477555502550995</v>
       </c>
       <c r="K3">
-        <v>0.7410468319559229</v>
+        <v>0.7493112947658402</v>
       </c>
       <c r="L3">
-        <v>0.7410468319559229</v>
+        <v>0.7483876150489321</v>
       </c>
       <c r="M3">
-        <v>28.00982165336609</v>
+        <v>625.2701163291931</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -609,7 +609,7 @@
         <v>19</v>
       </c>
       <c r="C4">
-        <v>0.7606754354781371</v>
+        <v>0.7613757554212583</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
@@ -618,28 +618,28 @@
         <v>27</v>
       </c>
       <c r="F4">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="G4">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="H4">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="I4">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="J4">
-        <v>0.7664611526701918</v>
+        <v>0.7458833894715893</v>
       </c>
       <c r="K4">
-        <v>0.7672176308539945</v>
+        <v>0.7465564738292011</v>
       </c>
       <c r="L4">
-        <v>0.7668020713111344</v>
+        <v>0.7461968200448346</v>
       </c>
       <c r="M4">
-        <v>8.03980016708374</v>
+        <v>222.5531287193298</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -650,7 +650,7 @@
         <v>20</v>
       </c>
       <c r="C5">
-        <v>0.7627586206896552</v>
+        <v>0.7692913852352175</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
@@ -659,28 +659,28 @@
         <v>28</v>
       </c>
       <c r="F5">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G5">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="H5">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I5">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="J5">
-        <v>0.7770221306761511</v>
+        <v>0.7693298645265477</v>
       </c>
       <c r="K5">
-        <v>0.778236914600551</v>
+        <v>0.7713498622589532</v>
       </c>
       <c r="L5">
-        <v>0.7775061011190347</v>
+        <v>0.7699511743266545</v>
       </c>
       <c r="M5">
-        <v>9.305044412612915</v>
+        <v>274.0794744491577</v>
       </c>
     </row>
   </sheetData>
